--- a/personalAccounts/CAMISETAS BORTBOTONES.xlsx
+++ b/personalAccounts/CAMISETAS BORTBOTONES.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>NOMBRE EN CAMISETA</t>
   </si>
@@ -147,9 +147,6 @@
     <t>transferir a</t>
   </si>
   <si>
-    <t>diostelopaguelemon</t>
-  </si>
-  <si>
     <t>a favor</t>
   </si>
   <si>
@@ -163,13 +160,25 @@
   </si>
   <si>
     <t>recaudado</t>
+  </si>
+  <si>
+    <t>diostelopaguemercado</t>
+  </si>
+  <si>
+    <t>pago total</t>
+  </si>
+  <si>
+    <t>efectivo</t>
+  </si>
+  <si>
+    <t>1840 CADA UNO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -294,6 +303,31 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -698,7 +732,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -751,13 +785,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,9 +801,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,8 +814,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,17 +833,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,6 +903,27 @@
     <xf numFmtId="14" fontId="15" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent 1 5" xfId="1"/>
@@ -1249,11 +1289,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1269,18 +1309,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1308,7 +1348,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>33</v>
@@ -1336,28 +1376,28 @@
       <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="55">
+      <c r="E3" s="80"/>
+      <c r="F3" s="81">
         <f>+$M$2+$M$2+$K$2+K3</f>
         <v>17540</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="82">
         <v>16520</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="83">
         <f>+F3-G3</f>
         <v>1020</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="42">
         <f>+I19</f>
         <v>1840</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="15">
@@ -1369,43 +1409,43 @@
       <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="F4" s="85">
+        <v>0</v>
+      </c>
+      <c r="G4" s="85">
+        <v>0</v>
+      </c>
+      <c r="H4" s="86">
         <f t="shared" ref="H4:H5" si="0">+F4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="24">
         <v>10</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>6</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="33">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
+      <c r="F5" s="88">
+        <v>0</v>
+      </c>
+      <c r="G5" s="88">
+        <v>0</v>
+      </c>
+      <c r="H5" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1421,73 +1461,73 @@
         <v>6</v>
       </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="55">
+      <c r="E6" s="80"/>
+      <c r="F6" s="81">
         <f>+$K$2+M2+K3</f>
         <v>12940</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="82">
         <v>5000</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="83">
         <f t="shared" ref="H6:H22" si="1">+F6-G6</f>
         <v>7940</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="24">
         <v>10</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>12</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
+      <c r="F7" s="88">
+        <v>0</v>
+      </c>
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+      <c r="H7" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="29">
         <v>13</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="56">
+      <c r="D8" s="31"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77">
         <f>+$K$2+K3</f>
         <v>8340</v>
       </c>
-      <c r="G8" s="40">
-        <v>7920</v>
-      </c>
-      <c r="H8" s="41">
+      <c r="G8" s="78">
+        <v>8340</v>
+      </c>
+      <c r="H8" s="79">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="78" t="s">
-        <v>42</v>
+      <c r="A9" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="18">
         <v>8</v>
@@ -1496,21 +1536,21 @@
         <v>9</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="55">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81">
         <f>+$K$2+M2+M2+K3</f>
         <v>17540</v>
       </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="G9" s="82">
+        <v>0</v>
+      </c>
+      <c r="H9" s="83">
         <f t="shared" si="1"/>
         <v>17540</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="15">
@@ -1522,252 +1562,254 @@
       <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
+      <c r="F10" s="85">
+        <v>0</v>
+      </c>
+      <c r="G10" s="85">
+        <v>0</v>
+      </c>
+      <c r="H10" s="86">
         <f>+F10-G10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="24">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="33">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
+      <c r="F11" s="88">
+        <v>0</v>
+      </c>
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+      <c r="H11" s="89">
         <f>+F11-G11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="29">
         <v>33</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="56">
+      <c r="D12" s="31"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91">
         <f>+$K$2+K3</f>
         <v>8340</v>
       </c>
-      <c r="G12" s="40">
-        <v>0</v>
-      </c>
-      <c r="H12" s="41">
+      <c r="G12" s="92">
+        <v>0</v>
+      </c>
+      <c r="H12" s="93">
         <f t="shared" si="1"/>
         <v>8340</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="29">
         <v>10</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="56">
+      <c r="D13" s="31"/>
+      <c r="E13" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="91">
         <f>+$K$2+K3</f>
         <v>8340</v>
       </c>
-      <c r="G13" s="40">
-        <v>0</v>
-      </c>
-      <c r="H13" s="41">
+      <c r="G13" s="92">
+        <v>0</v>
+      </c>
+      <c r="H13" s="93">
         <f t="shared" si="1"/>
         <v>8340</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="29">
         <v>2</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="77">
         <f>+$K$2+K3</f>
         <v>8340</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="78">
+        <v>8340</v>
+      </c>
+      <c r="H14" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36">
+        <v>14</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77">
+        <f>+$K$2+K3</f>
+        <v>8340</v>
+      </c>
+      <c r="G15" s="78">
+        <v>8340</v>
+      </c>
+      <c r="H15" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29">
+        <v>5</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91">
+        <f>+$K$2+K3</f>
+        <v>8340</v>
+      </c>
+      <c r="G16" s="92">
         <v>5000</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H16" s="93">
         <f t="shared" si="1"/>
         <v>3340</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="45">
-        <v>14</v>
-      </c>
-      <c r="C15" s="46" t="s">
+    <row r="17" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="29">
+        <v>7</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="57">
-        <f>+$K$2+K3</f>
-        <v>8340</v>
-      </c>
-      <c r="G15" s="49">
-        <v>0</v>
-      </c>
-      <c r="H15" s="50">
-        <f t="shared" si="1"/>
-        <v>8340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="36">
-        <v>5</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="56">
-        <f>+$K$2+K3</f>
-        <v>8340</v>
-      </c>
-      <c r="G16" s="51">
-        <v>5000</v>
-      </c>
-      <c r="H16" s="41">
-        <f t="shared" si="1"/>
-        <v>3340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="36">
-        <v>7</v>
-      </c>
-      <c r="C17" s="46" t="s">
+      <c r="D17" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="56">
+      <c r="E17" s="76"/>
+      <c r="F17" s="77">
         <f>+K2+K3</f>
         <v>8340</v>
       </c>
-      <c r="G17" s="51">
-        <v>3500</v>
-      </c>
-      <c r="H17" s="41">
+      <c r="G17" s="78">
+        <v>8340</v>
+      </c>
+      <c r="H17" s="79">
         <f t="shared" si="1"/>
-        <v>4840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="40">
         <v>9</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="40">
+      <c r="E18" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="95">
         <f>+$M$2</f>
         <v>4600</v>
       </c>
-      <c r="G18" s="40">
-        <v>0</v>
-      </c>
-      <c r="H18" s="41">
+      <c r="G18" s="95">
+        <v>4600</v>
+      </c>
+      <c r="H18" s="96">
         <f>+F18-G18</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="33">
         <v>3</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="47">
         <f>+$M$2+M2+M2+M2</f>
         <v>18400</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="47">
         <f>+J19*1720</f>
         <v>0</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="48">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="42">
         <f>+F19/10</f>
         <v>1840</v>
       </c>
@@ -1776,103 +1818,103 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="16">
         <v>4</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="68">
-        <v>0</v>
-      </c>
-      <c r="G20" s="68">
-        <v>0</v>
-      </c>
-      <c r="H20" s="69">
+      <c r="F20" s="53">
+        <v>0</v>
+      </c>
+      <c r="G20" s="53">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="16">
         <v>6</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="70">
-        <v>0</v>
-      </c>
-      <c r="G21" s="68">
-        <v>0</v>
-      </c>
-      <c r="H21" s="69">
+      <c r="E21" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53">
+        <v>0</v>
+      </c>
+      <c r="H21" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="34">
         <v>9</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75">
-        <v>0</v>
-      </c>
-      <c r="G22" s="75">
-        <v>0</v>
-      </c>
-      <c r="H22" s="76">
+      <c r="E22" s="59"/>
+      <c r="F22" s="60">
+        <v>0</v>
+      </c>
+      <c r="G22" s="60">
+        <v>0</v>
+      </c>
+      <c r="H22" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="90">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="75">
         <f ca="1">TODAY()</f>
-        <v>45198</v>
-      </c>
-      <c r="F23" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="82">
+        <v>45246</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="67">
         <f>SUM(G3:G17)+G18</f>
-        <v>42940</v>
-      </c>
-      <c r="H23" s="83">
+        <v>64480</v>
+      </c>
+      <c r="H23" s="68">
         <f>SUM(H3:H17)+H18</f>
-        <v>68060</v>
+        <v>46520</v>
       </c>
       <c r="I23">
         <f>+H23+G23</f>
@@ -1880,42 +1922,49 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="88">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="73">
         <v>45189</v>
       </c>
-      <c r="F24" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="82">
+      <c r="F24" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="67">
         <v>-40000</v>
       </c>
-      <c r="H24" s="82"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="89" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="67">
+        <v>0</v>
+      </c>
+      <c r="H25" s="67"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G26" s="67">
         <f>SUM(G23:G24)</f>
-        <v>2940</v>
-      </c>
-      <c r="H25" s="82"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
+        <v>24480</v>
+      </c>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
@@ -1945,11 +1994,11 @@
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1986,6 +2035,13 @@
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -2046,7 +2102,7 @@
       <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="15">
@@ -2063,19 +2119,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="24">
         <v>10</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="25">
         <v>6</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2093,34 +2149,34 @@
       <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="24">
         <v>10</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="25">
         <v>12</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="29">
         <v>13</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
@@ -2136,7 +2192,7 @@
       <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="15">
@@ -2153,184 +2209,184 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="24">
         <v>10</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="29">
         <v>33</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="29">
         <v>10</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="29">
         <v>2</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="36">
         <v>14</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="29">
         <v>5</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="29">
         <v>7</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="33">
         <v>3</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="16">
         <v>4</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="52" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="16">
         <v>6</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="34">
         <v>9</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="74"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="40">
         <v>9</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
